--- a/src/HB_Aranacak_UrunlerveSonuclar.xlsx
+++ b/src/HB_Aranacak_UrunlerveSonuclar.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tugba\IdeaProjects\E-Ticaret_Testleri\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{683B3EA7-4BBE-4F60-9DD2-49D2D0D6FA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F67F7D-99DB-4B88-8A7B-AC308CE7685B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39975" yWindow="2445" windowWidth="17250" windowHeight="8070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,26 +16,16 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Ürün</t>
   </si>
@@ -54,11 +44,18 @@
   <si>
     <t>Arama Sonucu Bulunan Adet</t>
   </si>
+  <si>
+    <t>bisiklet bataryası</t>
+  </si>
+  <si>
+    <t>kaset çalar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,7 +93,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -158,15 +155,6 @@
       <top style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
       <bottom style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </bottom>
@@ -196,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -204,13 +192,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -393,8 +380,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70882B35-4CC9-4E83-8AA2-F7F5E636E74E}" name="Table1" displayName="Table1" ref="A1:F4" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:F4" xr:uid="{70882B35-4CC9-4E83-8AA2-F7F5E636E74E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70882B35-4CC9-4E83-8AA2-F7F5E636E74E}" name="Table1" displayName="Table1" ref="A1:F5" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:F5" xr:uid="{70882B35-4CC9-4E83-8AA2-F7F5E636E74E}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{C1971364-DAE2-45FD-A967-00D5183FABDE}" name="Ürün" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{240788AC-4820-4DAE-AA4F-40A2EE0882B2}" name="Arama Sonucu Bulunan Adet" dataDxfId="4"/>
@@ -670,65 +657,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.5546875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.6640625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.44140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.88671875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.5546875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>312.0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/HB_Aranacak_UrunlerveSonuclar.xlsx
+++ b/src/HB_Aranacak_UrunlerveSonuclar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tugba\IdeaProjects\E-Ticaret_Testleri\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F67F7D-99DB-4B88-8A7B-AC308CE7685B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA75B76A-68D2-4BFA-8C6D-4832986FD8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39975" yWindow="2445" windowWidth="17250" windowHeight="8070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="15">
   <si>
     <t>Ürün</t>
   </si>
@@ -45,10 +45,31 @@
     <t>Arama Sonucu Bulunan Adet</t>
   </si>
   <si>
+    <t>Yarın Kapında Seçeneği</t>
+  </si>
+  <si>
+    <t>Renk Seçenekleri</t>
+  </si>
+  <si>
+    <t>çay</t>
+  </si>
+  <si>
     <t>bisiklet bataryası</t>
   </si>
   <si>
-    <t>kaset çalar</t>
+    <t>ıslak mendil</t>
+  </si>
+  <si>
+    <t>ingiliz karbonatı</t>
+  </si>
+  <si>
+    <t>erik reçeli</t>
+  </si>
+  <si>
+    <t>maymun</t>
+  </si>
+  <si>
+    <t>Yarın Kapında</t>
   </si>
 </sst>
 </file>
@@ -93,9 +114,18 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -106,34 +136,23 @@
       <right style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -144,78 +163,148 @@
         <color theme="0" tint="-0.499984740745262"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
+          <color indexed="64"/>
         </right>
         <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
+          <color indexed="64"/>
         </top>
         <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -223,82 +312,68 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
+          <color indexed="64"/>
         </right>
         <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
+          <color indexed="64"/>
         </top>
         <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
+          <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
+          <color indexed="64"/>
         </right>
         <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
+          <color indexed="64"/>
         </top>
         <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
+          <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
+          <color indexed="64"/>
         </right>
         <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
+          <color indexed="64"/>
         </top>
         <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
+          <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -380,11 +455,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70882B35-4CC9-4E83-8AA2-F7F5E636E74E}" name="Table1" displayName="Table1" ref="A1:F5" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:F5" xr:uid="{70882B35-4CC9-4E83-8AA2-F7F5E636E74E}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C1971364-DAE2-45FD-A967-00D5183FABDE}" name="Ürün" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{240788AC-4820-4DAE-AA4F-40A2EE0882B2}" name="Arama Sonucu Bulunan Adet" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70882B35-4CC9-4E83-8AA2-F7F5E636E74E}" name="Table1" displayName="Table1" ref="A1:H17" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:H17" xr:uid="{70882B35-4CC9-4E83-8AA2-F7F5E636E74E}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{C1971364-DAE2-45FD-A967-00D5183FABDE}" name="Ürün" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{240788AC-4820-4DAE-AA4F-40A2EE0882B2}" name="Arama Sonucu Bulunan Adet" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{20976E75-02EB-4979-A66A-E414D06485FE}" name="Yarın Kapında Seçeneği" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{C3DB7FA8-937E-4A31-B791-30A07E60AE22}" name="Renk Seçenekleri" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{7D03F316-46DE-46D5-BD66-4B340DA35D09}" name="En Yüksek Puanlı Ürün" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{1F1CBF41-1BE6-46A3-82F4-C68FBBCD0FB9}" name="Bu Ürünün Puanı" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{F98A10A3-9617-48E5-863B-3E4EC3410224}" name="Bu Ürünün Fiyatı" dataDxfId="1"/>
@@ -657,81 +734,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="15.5546875"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="23.6640625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="24.44140625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.88671875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.5546875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.77734375"/>
+    <col min="4" max="4" customWidth="true" width="25.77734375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="24.44140625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.88671875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.5546875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5" t="n">
-        <v>312.0</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>244.0</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>734.0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>225.0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>1334.0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/HB_Aranacak_UrunlerveSonuclar.xlsx
+++ b/src/HB_Aranacak_UrunlerveSonuclar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tugba\IdeaProjects\E-Ticaret_Testleri\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F9D585-1C28-45BF-B0A0-8F5548440889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A091CF44-75E4-4616-93CB-9440ECDF3D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>Ürün</t>
   </si>
   <si>
-    <t>En Yüksek Puanlı Ürün</t>
-  </si>
-  <si>
-    <t>Bu Ürünün Puanı</t>
-  </si>
-  <si>
     <t>Bu Ürünün Fiyatı</t>
   </si>
   <si>
@@ -70,6 +64,27 @@
   </si>
   <si>
     <t>Ürün tek çeşit.</t>
+  </si>
+  <si>
+    <t>55,00 TL</t>
+  </si>
+  <si>
+    <t>bisiklet</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Üründe farklı çeşitler mevcut.</t>
+  </si>
+  <si>
+    <t>4.387,20 TL</t>
+  </si>
+  <si>
+    <t>4.512,00 TL</t>
+  </si>
+  <si>
+    <t>4.850,00 TL</t>
   </si>
 </sst>
 </file>
@@ -100,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,8 +128,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -179,11 +200,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -196,55 +232,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -452,15 +446,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70882B35-4CC9-4E83-8AA2-F7F5E636E74E}" name="Table1" displayName="Table1" ref="A1:H16" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:H16" xr:uid="{70882B35-4CC9-4E83-8AA2-F7F5E636E74E}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C1971364-DAE2-45FD-A967-00D5183FABDE}" name="Ürün" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{240788AC-4820-4DAE-AA4F-40A2EE0882B2}" name="Arama Sonucu Bulunan Adet" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{20976E75-02EB-4979-A66A-E414D06485FE}" name="Yarın Kapında Seçeneği" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{C3DB7FA8-937E-4A31-B791-30A07E60AE22}" name="Çeşitler" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{7D03F316-46DE-46D5-BD66-4B340DA35D09}" name="En Yüksek Puanlı Ürün" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{1F1CBF41-1BE6-46A3-82F4-C68FBBCD0FB9}" name="Bu Ürünün Puanı" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70882B35-4CC9-4E83-8AA2-F7F5E636E74E}" name="Table1" displayName="Table1" ref="A1:F16" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:F16" xr:uid="{70882B35-4CC9-4E83-8AA2-F7F5E636E74E}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{C1971364-DAE2-45FD-A967-00D5183FABDE}" name="Ürün" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{240788AC-4820-4DAE-AA4F-40A2EE0882B2}" name="Arama Sonucu Bulunan Adet" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{20976E75-02EB-4979-A66A-E414D06485FE}" name="Yarın Kapında Seçeneği" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{C3DB7FA8-937E-4A31-B791-30A07E60AE22}" name="Çeşitler" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{F98A10A3-9617-48E5-863B-3E4EC3410224}" name="Bu Ürünün Fiyatı" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{9F81DC0C-19A5-4619-A605-D82AC1D1A5DE}" name="Bu Ürünün Linki" dataDxfId="0"/>
   </tableColumns>
@@ -731,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,209 +735,178 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="23.6640625"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="25.77734375"/>
     <col min="4" max="4" customWidth="true" width="25.77734375"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="24.44140625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.88671875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.5546875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="19.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.5546875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>27.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>75.0</v>
-      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="J6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="J9" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J12" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J13" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J14" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/src/HB_Aranacak_UrunlerveSonuclar.xlsx
+++ b/src/HB_Aranacak_UrunlerveSonuclar.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tugba\IdeaProjects\E-Ticaret_Testleri\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A091CF44-75E4-4616-93CB-9440ECDF3D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCBF99B-09B3-4C92-8290-12877C62D9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Ürün</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Bu Ürünün Fiyatı</t>
   </si>
   <si>
-    <t>Bu Ürünün Linki</t>
-  </si>
-  <si>
     <t>Arama Sonucu Bulunan Adet</t>
   </si>
   <si>
@@ -58,40 +55,12 @@
   </si>
   <si>
     <t>maymun</t>
-  </si>
-  <si>
-    <t>Çeşitler</t>
-  </si>
-  <si>
-    <t>Ürün tek çeşit.</t>
-  </si>
-  <si>
-    <t>55,00 TL</t>
-  </si>
-  <si>
-    <t>bisiklet</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Üründe farklı çeşitler mevcut.</t>
-  </si>
-  <si>
-    <t>4.387,20 TL</t>
-  </si>
-  <si>
-    <t>4.512,00 TL</t>
-  </si>
-  <si>
-    <t>4.850,00 TL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -135,18 +104,9 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -219,26 +179,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="8">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -259,46 +216,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -446,15 +363,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70882B35-4CC9-4E83-8AA2-F7F5E636E74E}" name="Table1" displayName="Table1" ref="A1:F16" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:F16" xr:uid="{70882B35-4CC9-4E83-8AA2-F7F5E636E74E}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C1971364-DAE2-45FD-A967-00D5183FABDE}" name="Ürün" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{240788AC-4820-4DAE-AA4F-40A2EE0882B2}" name="Arama Sonucu Bulunan Adet" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{20976E75-02EB-4979-A66A-E414D06485FE}" name="Yarın Kapında Seçeneği" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{C3DB7FA8-937E-4A31-B791-30A07E60AE22}" name="Çeşitler" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{F98A10A3-9617-48E5-863B-3E4EC3410224}" name="Bu Ürünün Fiyatı" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{9F81DC0C-19A5-4619-A605-D82AC1D1A5DE}" name="Bu Ürünün Linki" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70882B35-4CC9-4E83-8AA2-F7F5E636E74E}" name="Table1" displayName="Table1" ref="A1:D16" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:D16" xr:uid="{70882B35-4CC9-4E83-8AA2-F7F5E636E74E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C1971364-DAE2-45FD-A967-00D5183FABDE}" name="Ürün" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{240788AC-4820-4DAE-AA4F-40A2EE0882B2}" name="Arama Sonucu Bulunan Adet" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{20976E75-02EB-4979-A66A-E414D06485FE}" name="Yarın Kapında Seçeneği" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{F98A10A3-9617-48E5-863B-3E4EC3410224}" name="Bu Ürünün Fiyatı" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -723,190 +638,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.5546875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.6640625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="25.77734375"/>
-    <col min="4" max="4" customWidth="true" width="25.77734375"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.5546875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.0"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="J6" s="6" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="J8" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="J9" s="7" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="J12" s="6" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="J13" s="7" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="J14" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
